--- a/output/SUMMER/SUMMER_conso_prey_group_oceanic.xlsx
+++ b/output/SUMMER/SUMMER_conso_prey_group_oceanic.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Geo_area</t>
   </si>
@@ -107,9 +107,21 @@
     <t xml:space="preserve">Baleen whales</t>
   </si>
   <si>
+    <t xml:space="preserve">Balaenoptera acutorostrata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balaenoptera borealis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balaenoptera musculus</t>
+  </si>
+  <si>
     <t xml:space="preserve">Balaenoptera physalus</t>
   </si>
   <si>
+    <t xml:space="preserve">Megaptera novaeangliae</t>
+  </si>
+  <si>
     <t xml:space="preserve">Deep divers</t>
   </si>
   <si>
@@ -122,6 +134,15 @@
     <t xml:space="preserve">Physeter macrocephalus</t>
   </si>
   <si>
+    <t xml:space="preserve">Small delphinids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagenorhynchus acutus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagenorhynchus albirostris</t>
+  </si>
+  <si>
     <t xml:space="preserve">Northeast Atlantic</t>
   </si>
   <si>
@@ -134,9 +155,6 @@
     <t xml:space="preserve">Ziphius cavirostris</t>
   </si>
   <si>
-    <t xml:space="preserve">Small delphinids</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delphinus delphis</t>
   </si>
   <si>
@@ -150,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">Eastern Mediterranean Sea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All species</t>
   </si>
 </sst>
 </file>
@@ -596,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>61582</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -611,13 +632,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>20249</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1049148</v>
       </c>
       <c r="P2" t="n">
-        <v>6824321</v>
+        <v>114924</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -635,13 +656,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>33867</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -650,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>11136</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>576977</v>
       </c>
       <c r="AC2" t="n">
-        <v>3086845</v>
+        <v>63202</v>
       </c>
     </row>
     <row r="3">
@@ -664,13 +685,13 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
       <c r="D3" t="n">
-        <v>438870</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -682,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>369413</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>37814</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62104</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -697,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2243974</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5159</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>75328</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>319810</v>
       </c>
       <c r="Q3" t="n">
-        <v>223524</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -721,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>188148</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>19259</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>31631</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -736,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1142892</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>2627</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>38366</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>223470</v>
       </c>
     </row>
     <row r="4">
@@ -753,13 +774,13 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>4871</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -771,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>246312</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -786,19 +807,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1844</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>482898</v>
       </c>
       <c r="Q4" t="n">
-        <v>3424</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -810,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>173143</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -825,16 +846,16 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1296</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>270544</v>
       </c>
     </row>
     <row r="5">
@@ -842,13 +863,13 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>97070</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -860,22 +881,22 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1645960</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3048</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>218558</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -884,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6800978</v>
       </c>
       <c r="Q5" t="n">
-        <v>59987</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -899,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1017172</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1883</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>135065</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -923,18 +944,18 @@
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>3016283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -970,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>161769</v>
       </c>
       <c r="P6" t="n">
-        <v>5613039</v>
+        <v>161769</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1009,24 +1030,24 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>75416</v>
       </c>
       <c r="AC6" t="n">
-        <v>2474701</v>
+        <v>75416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
-        <v>48367</v>
+        <v>440085</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1038,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>40712</v>
+        <v>370436</v>
       </c>
       <c r="I7" t="n">
-        <v>4167</v>
+        <v>37919</v>
       </c>
       <c r="J7" t="n">
-        <v>6844</v>
+        <v>62276</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1053,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>247302</v>
+        <v>2250186</v>
       </c>
       <c r="N7" t="n">
-        <v>569</v>
+        <v>5173</v>
       </c>
       <c r="O7" t="n">
-        <v>8302</v>
+        <v>75537</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>19001</v>
+        <v>224334</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1077,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>15994</v>
+        <v>188830</v>
       </c>
       <c r="V7" t="n">
-        <v>1637</v>
+        <v>19329</v>
       </c>
       <c r="W7" t="n">
-        <v>2689</v>
+        <v>31745</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1092,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>97154</v>
+        <v>1147035</v>
       </c>
       <c r="AA7" t="n">
-        <v>223</v>
+        <v>2637</v>
       </c>
       <c r="AB7" t="n">
-        <v>3261</v>
+        <v>38505</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1106,16 +1127,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>4069</v>
+        <v>4912</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1127,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4017</v>
+        <v>248374</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1142,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1817</v>
+        <v>1859</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1154,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3125</v>
+        <v>3597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1166,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>3085</v>
+        <v>181875</v>
       </c>
       <c r="V8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1181,10 +1202,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1396</v>
+        <v>1362</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1195,88 +1216,88 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>173</v>
+        <v>97668</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>12462</v>
+        <v>1656099</v>
       </c>
       <c r="I9" t="n">
-        <v>466</v>
+        <v>3067</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1825</v>
+        <v>114</v>
       </c>
       <c r="L9" t="n">
-        <v>2679</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>220</v>
+        <v>219904</v>
       </c>
       <c r="N9" t="n">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>96</v>
+        <v>59391</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>6901</v>
+        <v>1007055</v>
       </c>
       <c r="V9" t="n">
-        <v>258</v>
+        <v>1865</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1011</v>
+        <v>69</v>
       </c>
       <c r="Y9" t="n">
-        <v>1483</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>122</v>
+        <v>133721</v>
       </c>
       <c r="AA9" t="n">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1284,16 +1305,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
-        <v>74452</v>
+        <v>1506</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,34 +1326,34 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1262439</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2338</v>
+        <v>60604</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>87</v>
+        <v>19574</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>167632</v>
+        <v>4894</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>204398</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>86578</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>31790</v>
+        <v>1038</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,28 +1365,28 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>539040</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>998</v>
+        <v>41783</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>37</v>
+        <v>13495</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>71576</v>
+        <v>3374</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>140921</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>59690</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -1373,88 +1394,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>569</v>
+        <v>5922</v>
       </c>
       <c r="E11" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>25082</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>234724</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>622</v>
+        <v>2093</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>9391</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>3483</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3064</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>264</v>
+        <v>3792</v>
       </c>
       <c r="R11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>11633</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>150324</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>288</v>
+        <v>1340</v>
       </c>
       <c r="Y11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>4355</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>3</v>
+        <v>2231</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1962</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1462,117 +1483,117 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>16294</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2910</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>30843</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>21532</v>
+        <v>6856</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="L12" t="n">
-        <v>30843</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>26769</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>44810</v>
+        <v>2254</v>
       </c>
       <c r="O12" t="n">
-        <v>406196</v>
+        <v>116811</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>12796</v>
       </c>
       <c r="Q12" t="n">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>8974</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1603</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>16987</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>11859</v>
+        <v>3722</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y12" t="n">
-        <v>16987</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>14743</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>24679</v>
+        <v>1224</v>
       </c>
       <c r="AB12" t="n">
-        <v>223713</v>
+        <v>63415</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>6947</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>48563</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4415</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>255179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,34 +1605,34 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>58276</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>98010</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>69755</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>351423</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>5665079</v>
       </c>
       <c r="Q13" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>19720</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1793</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>103619</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1623,51 +1644,51 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>23664</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>39798</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>28325</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>142700</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2429020</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>48407</v>
       </c>
       <c r="E14" t="n">
-        <v>1054</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>40746</v>
       </c>
       <c r="I14" t="n">
-        <v>62831</v>
+        <v>4171</v>
       </c>
       <c r="J14" t="n">
-        <v>8855</v>
+        <v>6850</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1676,37 +1697,37 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>7063</v>
+        <v>247510</v>
       </c>
       <c r="N14" t="n">
-        <v>3690</v>
+        <v>569</v>
       </c>
       <c r="O14" t="n">
-        <v>18871</v>
+        <v>8309</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>18998</v>
       </c>
       <c r="R14" t="n">
-        <v>381</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1370</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>15991</v>
       </c>
       <c r="V14" t="n">
-        <v>22680</v>
+        <v>1637</v>
       </c>
       <c r="W14" t="n">
-        <v>3197</v>
+        <v>2688</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1715,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>2550</v>
+        <v>97136</v>
       </c>
       <c r="AA14" t="n">
-        <v>1332</v>
+        <v>223</v>
       </c>
       <c r="AB14" t="n">
-        <v>6812</v>
+        <v>3261</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -1729,16 +1750,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1750,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4044</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1830</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>311986</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3151</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1789,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>3111</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1804,102 +1825,102 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1407</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>150798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="n">
+        <v>171</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>712</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12353</v>
+      </c>
+      <c r="I16" t="n">
+        <v>462</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1809</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2656</v>
+      </c>
+      <c r="M16" t="n">
+        <v>218</v>
+      </c>
+      <c r="N16" t="n">
+        <v>817</v>
+      </c>
+      <c r="O16" t="n">
         <v>33</v>
       </c>
-      <c r="D16" t="n">
-        <v>8894</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7486</v>
-      </c>
-      <c r="I16" t="n">
-        <v>766</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1259</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>45476</v>
-      </c>
-      <c r="N16" t="n">
-        <v>105</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1527</v>
-      </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4879</v>
+        <v>95</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>4107</v>
+        <v>6831</v>
       </c>
       <c r="V16" t="n">
-        <v>420</v>
+        <v>255</v>
       </c>
       <c r="W16" t="n">
-        <v>690</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1468</v>
       </c>
       <c r="Z16" t="n">
-        <v>24947</v>
+        <v>120</v>
       </c>
       <c r="AA16" t="n">
-        <v>57</v>
+        <v>452</v>
       </c>
       <c r="AB16" t="n">
-        <v>837</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -1907,85 +1928,85 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="n">
+        <v>74226</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1258608</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2331</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>86</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>167123</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>31803</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>539258</v>
+      </c>
+      <c r="V17" t="n">
+        <v>999</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>37</v>
       </c>
-      <c r="D17" t="n">
-        <v>24976</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>24658</v>
-      </c>
-      <c r="I17" t="n">
-        <v>133</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11156</v>
-      </c>
-      <c r="N17" t="n">
-        <v>20</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>11601</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>11454</v>
-      </c>
-      <c r="V17" t="n">
-        <v>62</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>5182</v>
+        <v>71605</v>
       </c>
       <c r="AA17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -1996,46 +2017,46 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D18" t="n">
-        <v>2063</v>
+        <v>573</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>34977</v>
+        <v>25233</v>
       </c>
       <c r="I18" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>626</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>4644</v>
+        <v>9447</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2044,37 +2065,37 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645</v>
+        <v>263</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>27898</v>
+        <v>11591</v>
       </c>
       <c r="V18" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>287</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z18" t="n">
-        <v>3704</v>
+        <v>4340</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2085,88 +2106,88 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D19" t="n">
-        <v>166</v>
+        <v>580</v>
       </c>
       <c r="E19" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>16240</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="H19" t="n">
-        <v>7330</v>
+        <v>30740</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>21460</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>30740</v>
       </c>
       <c r="M19" t="n">
-        <v>2744</v>
+        <v>26680</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>44660</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>404841</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="R19" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>8882</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1586</v>
       </c>
       <c r="U19" t="n">
-        <v>5393</v>
+        <v>16813</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>11737</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>16813</v>
       </c>
       <c r="Z19" t="n">
-        <v>2019</v>
+        <v>14592</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>24426</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>221421</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2174,7 +2195,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
@@ -2183,79 +2204,79 @@
         <v>41</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>147</v>
+        <v>6626</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2140</v>
       </c>
       <c r="L20" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>183</v>
+        <v>535</v>
       </c>
       <c r="N20" t="n">
-        <v>306</v>
+        <v>22348</v>
       </c>
       <c r="O20" t="n">
-        <v>2775</v>
+        <v>9466</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>282</v>
+        <v>5752</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1858</v>
       </c>
       <c r="Y20" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>350</v>
+        <v>464</v>
       </c>
       <c r="AA20" t="n">
-        <v>586</v>
+        <v>19400</v>
       </c>
       <c r="AB20" t="n">
-        <v>5314</v>
+        <v>8217</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -2263,7 +2284,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>40</v>
@@ -2272,79 +2293,79 @@
         <v>42</v>
       </c>
       <c r="D21" t="n">
-        <v>875</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>48142</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4377</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>252963</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1912</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L21" t="n">
-        <v>57770</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>97159</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>69149</v>
+        <v>28</v>
       </c>
       <c r="O21" t="n">
-        <v>348371</v>
+        <v>25</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="R21" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>15253</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1387</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>80145</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
-        <v>18303</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>30782</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>21908</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>110373</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -2352,88 +2373,88 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E22" t="n">
-        <v>650</v>
+        <v>887</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>48775</v>
       </c>
       <c r="G22" t="n">
-        <v>2339</v>
+        <v>4434</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>256292</v>
       </c>
       <c r="I22" t="n">
-        <v>38721</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5457</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>58530</v>
       </c>
       <c r="M22" t="n">
-        <v>4353</v>
+        <v>98437</v>
       </c>
       <c r="N22" t="n">
-        <v>2274</v>
+        <v>70059</v>
       </c>
       <c r="O22" t="n">
-        <v>11629</v>
+        <v>352955</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="R22" t="n">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>19619</v>
       </c>
       <c r="T22" t="n">
-        <v>929</v>
+        <v>1784</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103091</v>
       </c>
       <c r="V22" t="n">
-        <v>15373</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>2167</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>23543</v>
       </c>
       <c r="Z22" t="n">
-        <v>1728</v>
+        <v>39596</v>
       </c>
       <c r="AA22" t="n">
-        <v>903</v>
+        <v>28181</v>
       </c>
       <c r="AB22" t="n">
-        <v>4617</v>
+        <v>141973</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -2441,88 +2462,88 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3772</v>
       </c>
       <c r="H23" t="n">
-        <v>14285</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>26</v>
+        <v>62452</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>8802</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1897</v>
+        <v>7021</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3668</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>18757</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>941</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1339</v>
       </c>
       <c r="U23" t="n">
-        <v>15960</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>30</v>
+        <v>22168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3124</v>
       </c>
       <c r="X23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>2119</v>
+        <v>2492</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>6658</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -2530,28 +2551,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>5701</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2560,37 +2581,37 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2135</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>310678</v>
       </c>
       <c r="Q24" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>3542</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2599,108 +2620,108 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>148043</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>9032</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>232</v>
+        <v>7603</v>
       </c>
       <c r="I25" t="n">
-        <v>162</v>
+        <v>778</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1278</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>201</v>
+        <v>46183</v>
       </c>
       <c r="N25" t="n">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="O25" t="n">
-        <v>3056</v>
+        <v>1550</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>4907</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>194</v>
+        <v>4130</v>
       </c>
       <c r="V25" t="n">
-        <v>135</v>
+        <v>423</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>168</v>
+        <v>25089</v>
       </c>
       <c r="AA25" t="n">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="AB25" t="n">
-        <v>2550</v>
+        <v>842</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -2708,31 +2729,31 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" t="n">
-        <v>87</v>
+        <v>24933</v>
       </c>
       <c r="E26" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>4808</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>25262</v>
+        <v>24616</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2741,37 +2762,37 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5769</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>9703</v>
+        <v>11137</v>
       </c>
       <c r="N26" t="n">
-        <v>6906</v>
+        <v>20</v>
       </c>
       <c r="O26" t="n">
-        <v>34790</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>37</v>
+        <v>11542</v>
       </c>
       <c r="R26" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10644</v>
+        <v>11396</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2780,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>2431</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4088</v>
+        <v>5155</v>
       </c>
       <c r="AA26" t="n">
-        <v>2910</v>
+        <v>9</v>
       </c>
       <c r="AB26" t="n">
-        <v>14659</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
         <v>0</v>
@@ -2797,90 +2818,1247 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2077</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>35218</v>
+      </c>
+      <c r="I27" t="n">
+        <v>65</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4676</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1676</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>28417</v>
+      </c>
+      <c r="V27" t="n">
+        <v>53</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>3773</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="n">
+        <v>167</v>
+      </c>
+      <c r="E28" t="n">
+        <v>63</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>7340</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>182</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2748</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>126</v>
+      </c>
+      <c r="R28" t="n">
+        <v>48</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5570</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>138</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2086</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
         <v>40</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>117</v>
+      </c>
+      <c r="G29" t="n">
+        <v>21</v>
+      </c>
+      <c r="H29" t="n">
+        <v>221</v>
+      </c>
+      <c r="I29" t="n">
+        <v>154</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>192</v>
+      </c>
+      <c r="N29" t="n">
+        <v>321</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2906</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>246</v>
+      </c>
+      <c r="T29" t="n">
+        <v>44</v>
+      </c>
+      <c r="U29" t="n">
+        <v>466</v>
+      </c>
+      <c r="V29" t="n">
+        <v>325</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>466</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>405</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>677</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>6139</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="n">
+        <v>877</v>
+      </c>
+      <c r="E30" t="n">
+        <v>877</v>
+      </c>
+      <c r="F30" t="n">
+        <v>48249</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4386</v>
+      </c>
+      <c r="H30" t="n">
+        <v>253528</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>57899</v>
+      </c>
+      <c r="M30" t="n">
+        <v>97376</v>
+      </c>
+      <c r="N30" t="n">
+        <v>69304</v>
+      </c>
+      <c r="O30" t="n">
+        <v>349150</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>279</v>
+      </c>
+      <c r="R30" t="n">
+        <v>279</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15339</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1394</v>
+      </c>
+      <c r="U30" t="n">
+        <v>80598</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>18406</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>30956</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>22032</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>110996</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>646</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2324</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>38475</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5423</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4325</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2259</v>
+      </c>
+      <c r="O31" t="n">
+        <v>11555</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>262</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>942</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>15589</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2197</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1752</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>915</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>4682</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" t="n">
+        <v>839</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>14222</v>
+      </c>
+      <c r="I32" t="n">
+        <v>26</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1888</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>943</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15984</v>
+      </c>
+      <c r="V32" t="n">
+        <v>30</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2122</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="n">
+        <v>128</v>
+      </c>
+      <c r="E33" t="n">
+        <v>48</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5627</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>140</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2107</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>77</v>
+      </c>
+      <c r="R33" t="n">
+        <v>29</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>3392</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>84</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1270</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>124</v>
+      </c>
+      <c r="G34" t="n">
+        <v>22</v>
+      </c>
+      <c r="H34" t="n">
+        <v>234</v>
+      </c>
+      <c r="I34" t="n">
+        <v>164</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>234</v>
+      </c>
+      <c r="M34" t="n">
+        <v>203</v>
+      </c>
+      <c r="N34" t="n">
+        <v>340</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3086</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>106</v>
+      </c>
+      <c r="T34" t="n">
+        <v>19</v>
+      </c>
+      <c r="U34" t="n">
+        <v>200</v>
+      </c>
+      <c r="V34" t="n">
+        <v>140</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>200</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>174</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2633</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="n">
+        <v>87</v>
+      </c>
+      <c r="E35" t="n">
+        <v>87</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4787</v>
+      </c>
+      <c r="G35" t="n">
+        <v>435</v>
+      </c>
+      <c r="H35" t="n">
+        <v>25153</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5744</v>
+      </c>
+      <c r="M35" t="n">
+        <v>9661</v>
+      </c>
+      <c r="N35" t="n">
+        <v>6876</v>
+      </c>
+      <c r="O35" t="n">
+        <v>34640</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>37</v>
+      </c>
+      <c r="R35" t="n">
+        <v>37</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2011</v>
+      </c>
+      <c r="T35" t="n">
+        <v>183</v>
+      </c>
+      <c r="U35" t="n">
+        <v>10568</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2413</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>4059</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2889</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>14554</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>26</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>95</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1573</v>
+      </c>
+      <c r="J36" t="n">
+        <v>222</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>177</v>
+      </c>
+      <c r="N36" t="n">
+        <v>92</v>
+      </c>
+      <c r="O36" t="n">
+        <v>472</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>16</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>59</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>971</v>
+      </c>
+      <c r="W36" t="n">
+        <v>137</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>109</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>57</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>292</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="n">
+        <v>55009</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>227491</v>
+      </c>
+      <c r="I37" t="n">
+        <v>39790</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6228</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2228</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>247684</v>
+      </c>
+      <c r="N37" t="n">
+        <v>23332</v>
+      </c>
+      <c r="O37" t="n">
+        <v>137610</v>
+      </c>
+      <c r="P37" t="n">
+        <v>788038</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>150630</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>592189</v>
+      </c>
+      <c r="V37" t="n">
+        <v>86047</v>
+      </c>
+      <c r="W37" t="n">
+        <v>21209</v>
+      </c>
+      <c r="X37" t="n">
+        <v>7226</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>763659</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>75351</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>359770</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2228193</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
         <v>43</v>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>27</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>96</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1583</v>
-      </c>
-      <c r="J27" t="n">
-        <v>223</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>178</v>
-      </c>
-      <c r="N27" t="n">
-        <v>93</v>
-      </c>
-      <c r="O27" t="n">
-        <v>475</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>16</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>59</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>974</v>
-      </c>
-      <c r="W27" t="n">
-        <v>137</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>109</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>57</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>292</v>
-      </c>
-      <c r="AC27" t="n">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10763</v>
+      </c>
+      <c r="E38" t="n">
+        <v>179</v>
+      </c>
+      <c r="F38" t="n">
+        <v>5478</v>
+      </c>
+      <c r="G38" t="n">
+        <v>926</v>
+      </c>
+      <c r="H38" t="n">
+        <v>135668</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8858</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1304</v>
+      </c>
+      <c r="K38" t="n">
+        <v>394</v>
+      </c>
+      <c r="L38" t="n">
+        <v>7661</v>
+      </c>
+      <c r="M38" t="n">
+        <v>46567</v>
+      </c>
+      <c r="N38" t="n">
+        <v>12034</v>
+      </c>
+      <c r="O38" t="n">
+        <v>75933</v>
+      </c>
+      <c r="P38" t="n">
+        <v>473156</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>25599</v>
+      </c>
+      <c r="R38" t="n">
+        <v>390</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15130</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1815</v>
+      </c>
+      <c r="U38" t="n">
+        <v>380182</v>
+      </c>
+      <c r="V38" t="n">
+        <v>18748</v>
+      </c>
+      <c r="W38" t="n">
+        <v>3175</v>
+      </c>
+      <c r="X38" t="n">
+        <v>954</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>19392</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>86643</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>24924</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>159886</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1715290</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4636</v>
+      </c>
+      <c r="E39" t="n">
+        <v>198</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6046</v>
+      </c>
+      <c r="G39" t="n">
+        <v>841</v>
+      </c>
+      <c r="H39" t="n">
+        <v>41066</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4951</v>
+      </c>
+      <c r="J39" t="n">
+        <v>838</v>
+      </c>
+      <c r="K39" t="n">
+        <v>23</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7265</v>
+      </c>
+      <c r="M39" t="n">
+        <v>20830</v>
+      </c>
+      <c r="N39" t="n">
+        <v>9001</v>
+      </c>
+      <c r="O39" t="n">
+        <v>45645</v>
+      </c>
+      <c r="P39" t="n">
+        <v>38835</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>9331</v>
+      </c>
+      <c r="R39" t="n">
+        <v>358</v>
+      </c>
+      <c r="S39" t="n">
+        <v>16848</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1651</v>
+      </c>
+      <c r="U39" t="n">
+        <v>86765</v>
+      </c>
+      <c r="V39" t="n">
+        <v>13821</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1960</v>
+      </c>
+      <c r="X39" t="n">
+        <v>77</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>20215</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>35271</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>24101</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>121327</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>115310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="n">
+        <v>212</v>
+      </c>
+      <c r="E40" t="n">
+        <v>32</v>
+      </c>
+      <c r="F40" t="n">
+        <v>983</v>
+      </c>
+      <c r="G40" t="n">
+        <v>110</v>
+      </c>
+      <c r="H40" t="n">
+        <v>9047</v>
+      </c>
+      <c r="I40" t="n">
+        <v>353</v>
+      </c>
+      <c r="J40" t="n">
+        <v>44</v>
+      </c>
+      <c r="K40" t="n">
+        <v>28</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1196</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2807</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1462</v>
+      </c>
+      <c r="O40" t="n">
+        <v>7640</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>529</v>
+      </c>
+      <c r="R40" t="n">
+        <v>40</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2105</v>
+      </c>
+      <c r="T40" t="n">
+        <v>187</v>
+      </c>
+      <c r="U40" t="n">
+        <v>12931</v>
+      </c>
+      <c r="V40" t="n">
+        <v>754</v>
+      </c>
+      <c r="W40" t="n">
+        <v>108</v>
+      </c>
+      <c r="X40" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2521</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>4114</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3005</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>15078</v>
+      </c>
+      <c r="AC40" t="n">
         <v>0</v>
       </c>
     </row>
